--- a/biology/Zoologie/Carteriospongia/Carteriospongia.xlsx
+++ b/biology/Zoologie/Carteriospongia/Carteriospongia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carteriospongia est un genre  d'éponges de la famille des Thorectidae et de l'ordre des Dictyoceratida. L'espèce type du genre est Carteriospongia foliascens (Pallas, 1766), d'abord décrite sous le nom Spongia foliascens.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carteriospongia clathrata (Carter, 1881)
 Carteriospongia contorta Bergquist, Ayling &amp; Wilkinson, 1988
